--- a/SourceCode/HomeCare/WebContent/WEB-INF/resources/smtpportdetails.xlsx
+++ b/SourceCode/HomeCare/WebContent/WEB-INF/resources/smtpportdetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>smtpout.secureserver.net</t>
+  </si>
+  <si>
+    <t>Hot mail</t>
+  </si>
+  <si>
+    <t>smtp.live.com</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -413,6 +419,17 @@
       </c>
       <c r="C3">
         <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
